--- a/shares_purchasable.xlsx
+++ b/shares_purchasable.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-03</t>
         </is>
       </c>
     </row>
@@ -464,13 +464,11 @@
       <c r="B2" t="n">
         <v>0.008200000000000001</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C2" t="n">
+        <v>82.25036682338281</v>
       </c>
       <c r="D2" t="n">
-        <v>0.823</v>
+        <v>77.60058829430365</v>
       </c>
     </row>
     <row r="3">
@@ -482,13 +480,11 @@
       <c r="B3" t="n">
         <v>0.0061</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C3" t="n">
+        <v>14.15267949336172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.142</v>
+        <v>14.03203552078242</v>
       </c>
     </row>
     <row r="4">
@@ -500,13 +496,11 @@
       <c r="B4" t="n">
         <v>0.0195</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C4" t="n">
+        <v>40.33803191963435</v>
       </c>
       <c r="D4" t="n">
-        <v>0.403</v>
+        <v>40.49566856509886</v>
       </c>
     </row>
     <row r="5">
@@ -518,13 +512,11 @@
       <c r="B5" t="n">
         <v>0.0257</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C5" t="n">
+        <v>87.94301481580007</v>
       </c>
       <c r="D5" t="n">
-        <v>0.879</v>
+        <v>86.16975441619989</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +528,11 @@
       <c r="B6" t="n">
         <v>0.012</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C6" t="n">
+        <v>62.63113297899953</v>
       </c>
       <c r="D6" t="n">
-        <v>0.626</v>
+        <v>62.22388247099605</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +544,11 @@
       <c r="B7" t="n">
         <v>0.0237</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C7" t="n">
+        <v>15.03612450938954</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15</v>
+        <v>14.98026306453758</v>
       </c>
     </row>
     <row r="8">
@@ -572,13 +560,11 @@
       <c r="B8" t="n">
         <v>0.0233</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C8" t="n">
+        <v>60.8420549314929</v>
       </c>
       <c r="D8" t="n">
-        <v>0.608</v>
+        <v>61.70744314395807</v>
       </c>
     </row>
     <row r="9">
@@ -590,13 +576,11 @@
       <c r="B9" t="n">
         <v>0.0046</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C9" t="n">
+        <v>339.9626111676597</v>
       </c>
       <c r="D9" t="n">
-        <v>3.4</v>
+        <v>339.8470688190315</v>
       </c>
     </row>
     <row r="10">
@@ -608,13 +592,11 @@
       <c r="B10" t="n">
         <v>0.0052</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C10" t="n">
+        <v>20.37801212491721</v>
       </c>
       <c r="D10" t="n">
-        <v>0.204</v>
+        <v>20.36825770142422</v>
       </c>
     </row>
     <row r="11">
@@ -626,13 +608,11 @@
       <c r="B11" t="n">
         <v>0.0068</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C11" t="n">
+        <v>66.32619436133429</v>
       </c>
       <c r="D11" t="n">
-        <v>0.663</v>
+        <v>65.19329709131415</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +624,11 @@
       <c r="B12" t="n">
         <v>0.0051</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C12" t="n">
+        <v>237.1353974514602</v>
       </c>
       <c r="D12" t="n">
-        <v>2.371</v>
+        <v>236.9106812461785</v>
       </c>
     </row>
     <row r="13">
@@ -662,13 +640,11 @@
       <c r="B13" t="n">
         <v>0.0077</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C13" t="n">
+        <v>15.98631546417649</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16</v>
+        <v>16.10163401709195</v>
       </c>
     </row>
     <row r="14">
@@ -680,13 +656,11 @@
       <c r="B14" t="n">
         <v>0.0067</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C14" t="n">
+        <v>81.84980560671168</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8179999999999999</v>
+        <v>81.66598611678236</v>
       </c>
     </row>
     <row r="15">
@@ -698,13 +672,11 @@
       <c r="B15" t="n">
         <v>0.0049</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C15" t="n">
+        <v>20.74387453035078</v>
       </c>
       <c r="D15" t="n">
-        <v>0.207</v>
+        <v>20.64260385482484</v>
       </c>
     </row>
     <row r="16">
@@ -716,13 +688,11 @@
       <c r="B16" t="n">
         <v>0.008500000000000001</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C16" t="n">
+        <v>37.12572559901262</v>
       </c>
       <c r="D16" t="n">
-        <v>0.371</v>
+        <v>36.84598378776713</v>
       </c>
     </row>
     <row r="17">
@@ -734,13 +704,11 @@
       <c r="B17" t="n">
         <v>0.0153</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C17" t="n">
+        <v>53.43307507347048</v>
       </c>
       <c r="D17" t="n">
-        <v>0.534</v>
+        <v>52.88906518577284</v>
       </c>
     </row>
     <row r="18">
@@ -752,13 +720,11 @@
       <c r="B18" t="n">
         <v>0.081</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C18" t="n">
+        <v>55.41087311221202</v>
       </c>
       <c r="D18" t="n">
-        <v>0.554</v>
+        <v>54.75551515435079</v>
       </c>
     </row>
     <row r="19">
@@ -770,13 +736,11 @@
       <c r="B19" t="n">
         <v>0.0072</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C19" t="n">
+        <v>156.2011841506518</v>
       </c>
       <c r="D19" t="n">
-        <v>1.562</v>
+        <v>157.7287066246057</v>
       </c>
     </row>
     <row r="20">
@@ -788,13 +752,11 @@
       <c r="B20" t="n">
         <v>0.0043</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C20" t="n">
+        <v>21.05950276128334</v>
       </c>
       <c r="D20" t="n">
-        <v>0.211</v>
+        <v>21.29018522461146</v>
       </c>
     </row>
     <row r="21">
@@ -806,13 +768,11 @@
       <c r="B21" t="n">
         <v>0.0094</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C21" t="n">
+        <v>150.9206213169114</v>
       </c>
       <c r="D21" t="n">
-        <v>1.509</v>
+        <v>149.8015157345993</v>
       </c>
     </row>
     <row r="22">
@@ -824,13 +784,11 @@
       <c r="B22" t="n">
         <v>0.0267</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C22" t="n">
+        <v>40.33640721178721</v>
       </c>
       <c r="D22" t="n">
-        <v>0.403</v>
+        <v>40.2762938021903</v>
       </c>
     </row>
     <row r="23">
@@ -842,13 +800,11 @@
       <c r="B23" t="n">
         <v>0.06900000000000001</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C23" t="n">
+        <v>76.6489082349203</v>
       </c>
       <c r="D23" t="n">
-        <v>0.766</v>
+        <v>76.42922511009792</v>
       </c>
     </row>
     <row r="24">
@@ -860,13 +816,11 @@
       <c r="B24" t="n">
         <v>0.008500000000000001</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C24" t="n">
+        <v>100.9132638055892</v>
       </c>
       <c r="D24" t="n">
-        <v>1.009</v>
+        <v>100.1652751494379</v>
       </c>
     </row>
     <row r="25">
@@ -878,13 +832,11 @@
       <c r="B25" t="n">
         <v>0.0766</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C25" t="n">
+        <v>53.19714725102833</v>
       </c>
       <c r="D25" t="n">
-        <v>0.532</v>
+        <v>52.85132989287864</v>
       </c>
     </row>
     <row r="26">
@@ -896,13 +848,11 @@
       <c r="B26" t="n">
         <v>0.0303</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C26" t="n">
+        <v>209.5557364667782</v>
       </c>
       <c r="D26" t="n">
-        <v>2.096</v>
+        <v>211.6178236868593</v>
       </c>
     </row>
     <row r="27">
@@ -914,13 +864,11 @@
       <c r="B27" t="n">
         <v>0.0094</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C27" t="n">
+        <v>101.0305124603785</v>
       </c>
       <c r="D27" t="n">
-        <v>1.01</v>
+        <v>100.1201453966457</v>
       </c>
     </row>
     <row r="28">
@@ -932,13 +880,11 @@
       <c r="B28" t="n">
         <v>0.0351</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C28" t="n">
+        <v>57.01416960796773</v>
       </c>
       <c r="D28" t="n">
-        <v>0.57</v>
+        <v>57.14612183829419</v>
       </c>
     </row>
     <row r="29">
@@ -950,13 +896,11 @@
       <c r="B29" t="n">
         <v>0.0274</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C29" t="n">
+        <v>26.99747538012821</v>
       </c>
       <c r="D29" t="n">
-        <v>0.27</v>
+        <v>26.40577724367394</v>
       </c>
     </row>
     <row r="30">
@@ -968,13 +912,11 @@
       <c r="B30" t="n">
         <v>0.0137</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C30" t="n">
+        <v>8.897351413145298</v>
       </c>
       <c r="D30" t="n">
-        <v>0.089</v>
+        <v>8.865837710840703</v>
       </c>
     </row>
     <row r="31">
@@ -986,13 +928,11 @@
       <c r="B31" t="n">
         <v>0.008699999999999999</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C31" t="n">
+        <v>44.4079293306784</v>
       </c>
       <c r="D31" t="n">
-        <v>0.444</v>
+        <v>44.21452984874766</v>
       </c>
     </row>
     <row r="32">
@@ -1004,13 +944,11 @@
       <c r="B32" t="n">
         <v>0.009900000000000001</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C32" t="n">
+        <v>279.1736364939104</v>
       </c>
       <c r="D32" t="n">
-        <v>2.792</v>
+        <v>272.1458611454809</v>
       </c>
     </row>
     <row r="33">
@@ -1022,13 +960,11 @@
       <c r="B33" t="n">
         <v>0.0078</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C33" t="n">
+        <v>388.2741399327298</v>
       </c>
       <c r="D33" t="n">
-        <v>3.883</v>
+        <v>381.1701836231059</v>
       </c>
     </row>
     <row r="34">
@@ -1040,13 +976,11 @@
       <c r="B34" t="n">
         <v>0.0104</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C34" t="n">
+        <v>305.0175328300159</v>
       </c>
       <c r="D34" t="n">
-        <v>3.05</v>
+        <v>303.3520456590746</v>
       </c>
     </row>
     <row r="35">
@@ -1058,13 +992,11 @@
       <c r="B35" t="n">
         <v>0.1286</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C35" t="n">
+        <v>76.38543951046184</v>
       </c>
       <c r="D35" t="n">
-        <v>0.764</v>
+        <v>75.56865133388079</v>
       </c>
     </row>
     <row r="36">
@@ -1076,13 +1008,11 @@
       <c r="B36" t="n">
         <v>0.0065</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C36" t="n">
+        <v>70.32101302089012</v>
       </c>
       <c r="D36" t="n">
-        <v>0.703</v>
+        <v>69.39866295749789</v>
       </c>
     </row>
     <row r="37">
@@ -1094,13 +1024,11 @@
       <c r="B37" t="n">
         <v>0.0254</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C37" t="n">
+        <v>119.560015639711</v>
       </c>
       <c r="D37" t="n">
-        <v>1.196</v>
+        <v>117.1028732016179</v>
       </c>
     </row>
     <row r="38">
@@ -1112,13 +1040,11 @@
       <c r="B38" t="n">
         <v>0.0046</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C38" t="n">
+        <v>3.733572281959379</v>
       </c>
       <c r="D38" t="n">
-        <v>0.037</v>
+        <v>3.681973296057189</v>
       </c>
     </row>
     <row r="39">
@@ -1130,13 +1056,11 @@
       <c r="B39" t="n">
         <v>0.0134</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C39" t="n">
+        <v>55.29291272021827</v>
       </c>
       <c r="D39" t="n">
-        <v>0.553</v>
+        <v>55.55401088158763</v>
       </c>
     </row>
     <row r="40">
@@ -1148,13 +1072,11 @@
       <c r="B40" t="n">
         <v>0.0066</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C40" t="n">
+        <v>104.4932079414838</v>
       </c>
       <c r="D40" t="n">
-        <v>1.045</v>
+        <v>104.7120418848168</v>
       </c>
     </row>
     <row r="41">
@@ -1166,13 +1088,11 @@
       <c r="B41" t="n">
         <v>0.0105</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C41" t="n">
+        <v>126.5742694071211</v>
       </c>
       <c r="D41" t="n">
-        <v>1.266</v>
+        <v>124.804992199688</v>
       </c>
     </row>
     <row r="42">
@@ -1184,13 +1104,11 @@
       <c r="B42" t="n">
         <v>0.0137</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C42" t="n">
+        <v>683.0134382810606</v>
       </c>
       <c r="D42" t="n">
-        <v>6.83</v>
+        <v>682.4075650443139</v>
       </c>
     </row>
     <row r="43">
@@ -1202,13 +1120,11 @@
       <c r="B43" t="n">
         <v>0.0491</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C43" t="n">
+        <v>23.38278846374509</v>
       </c>
       <c r="D43" t="n">
-        <v>0.234</v>
+        <v>23.2409505548777</v>
       </c>
     </row>
     <row r="44">
@@ -1220,13 +1136,11 @@
       <c r="B44" t="n">
         <v>0.0105</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C44" t="n">
+        <v>57.27541040502357</v>
       </c>
       <c r="D44" t="n">
-        <v>0.573</v>
+        <v>57.15918833952558</v>
       </c>
     </row>
     <row r="45">
@@ -1238,13 +1152,11 @@
       <c r="B45" t="n">
         <v>0.0137</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C45" t="n">
+        <v>30.24025796357555</v>
       </c>
       <c r="D45" t="n">
-        <v>0.302</v>
+        <v>30.00525091891081</v>
       </c>
     </row>
     <row r="46">
@@ -1256,13 +1168,11 @@
       <c r="B46" t="n">
         <v>0.0102</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C46" t="n">
+        <v>8.584759620442961</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08599999999999999</v>
+        <v>8.437145654301469</v>
       </c>
     </row>
     <row r="47">
@@ -1274,13 +1184,11 @@
       <c r="B47" t="n">
         <v>0.006</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C47" t="n">
+        <v>180.1639531560526</v>
       </c>
       <c r="D47" t="n">
-        <v>1.802</v>
+        <v>177.5883579038417</v>
       </c>
     </row>
     <row r="48">
@@ -1292,13 +1200,11 @@
       <c r="B48" t="n">
         <v>0.0101</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+      <c r="C48" t="n">
+        <v>342.1435363554132</v>
       </c>
       <c r="D48" t="n">
-        <v>3.421</v>
+        <v>342.8767429890402</v>
       </c>
     </row>
   </sheetData>
